--- a/kaskad/production/sizod/zeh3linii/september/statistics09.24.xlsx
+++ b/kaskad/production/sizod/zeh3linii/september/statistics09.24.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaximSmerdov\Desktop\Простои ДОТ-ЭКО\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Kaskad\Sambar\docs\kaskad\production\sizod\zeh3linii\september\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA7050E-B8E9-4A93-9ECC-1A6340658C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,6 +823,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,135 +998,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1311,11 +1313,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:S13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,13 +1344,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1363,13 +1365,13 @@
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1387,12 +1389,12 @@
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="109"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1411,12 +1413,12 @@
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1435,12 +1437,12 @@
       <c r="A6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="103"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1459,12 +1461,12 @@
       <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1483,12 +1485,12 @@
       <c r="A8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1507,12 +1509,12 @@
       <c r="A9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1529,10 +1531,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1577,81 +1579,81 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="65"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="109"/>
     </row>
     <row r="14" spans="1:19" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
-      <c r="B14" s="83" t="s">
+      <c r="A14" s="83"/>
+      <c r="B14" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="85" t="s">
+      <c r="G14" s="117"/>
+      <c r="H14" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="90" t="s">
+      <c r="I14" s="81"/>
+      <c r="J14" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="91"/>
-      <c r="L14" s="74" t="s">
+      <c r="K14" s="86"/>
+      <c r="L14" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="75"/>
-      <c r="N14" s="70" t="s">
+      <c r="M14" s="119"/>
+      <c r="N14" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="71"/>
-      <c r="P14" s="76" t="s">
+      <c r="O14" s="115"/>
+      <c r="P14" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="66" t="s">
+      <c r="Q14" s="121"/>
+      <c r="R14" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="66" t="s">
+      <c r="S14" s="110" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="84"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="79"/>
       <c r="F15" s="18" t="s">
         <v>11</v>
       </c>
@@ -1688,8 +1690,8 @@
       <c r="Q15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="69"/>
-      <c r="S15" s="66"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="110"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="51">
@@ -2395,24 +2397,24 @@
       <c r="A28" s="11">
         <v>45548</v>
       </c>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="120"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="66"/>
       <c r="R28" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2541,24 +2543,24 @@
       <c r="A31" s="11">
         <v>45551</v>
       </c>
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="119"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="119"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="120"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="66"/>
       <c r="R31" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3157,7 +3159,7 @@
     </row>
     <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>45531</v>
+        <v>45562</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>7</v>
@@ -3165,8 +3167,8 @@
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="9">
-        <v>0.16</v>
+      <c r="D42" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>7</v>
@@ -3201,21 +3203,21 @@
       <c r="O42" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P42" s="62" t="s">
-        <v>7</v>
+      <c r="P42" s="62">
+        <v>0.5</v>
       </c>
       <c r="Q42" s="62" t="s">
         <v>7</v>
       </c>
       <c r="R42" s="38">
         <f t="shared" si="1"/>
-        <v>0.24299999999999999</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="S42" s="40"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>45532</v>
+        <v>45563</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>7</v>
@@ -3223,11 +3225,11 @@
       <c r="C43" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="9">
-        <v>0.16</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>7</v>
+      <c r="D43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1.9</v>
       </c>
       <c r="F43" s="49" t="s">
         <v>7</v>
@@ -3267,13 +3269,13 @@
       </c>
       <c r="R43" s="38">
         <f t="shared" si="1"/>
-        <v>0.24299999999999999</v>
+        <v>1.9829999999999999</v>
       </c>
       <c r="S43" s="40"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>45533</v>
+        <v>45564</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>7</v>
@@ -3281,8 +3283,8 @@
       <c r="C44" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="9">
-        <v>8.3000000000000004E-2</v>
+      <c r="D44" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>7</v>
@@ -3300,7 +3302,7 @@
         <v>7</v>
       </c>
       <c r="J44" s="28">
-        <v>8.3000000000000004E-2</v>
+        <v>0.25</v>
       </c>
       <c r="K44" s="27" t="s">
         <v>28</v>
@@ -3317,21 +3319,21 @@
       <c r="O44" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P44" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q44" s="12" t="s">
-        <v>7</v>
+      <c r="P44" s="63">
+        <v>0.16</v>
+      </c>
+      <c r="Q44" s="47" t="s">
+        <v>8</v>
       </c>
       <c r="R44" s="38">
         <f t="shared" si="1"/>
-        <v>0.16600000000000001</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="S44" s="40"/>
     </row>
     <row r="45" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
-        <v>45534</v>
+        <v>45565</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>7</v>
@@ -3339,8 +3341,8 @@
       <c r="C45" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="9">
-        <v>0.58299999999999996</v>
+      <c r="D45" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>7</v>
@@ -3375,15 +3377,15 @@
       <c r="O45" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P45" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>7</v>
+      <c r="P45" s="63">
+        <v>0.16</v>
+      </c>
+      <c r="Q45" s="47" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="38">
         <f t="shared" si="1"/>
-        <v>0.66599999999999993</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="S45" s="40"/>
     </row>
@@ -3401,58 +3403,58 @@
       </c>
       <c r="D46" s="59">
         <f>SUM(D16:D45)</f>
-        <v>0.98599999999999999</v>
+        <v>0</v>
       </c>
       <c r="E46" s="59">
         <f>SUM(E16:E45)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F46" s="116">
+        <v>2.4</v>
+      </c>
+      <c r="F46" s="71">
         <f>SUM(F16:F45)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="117"/>
-      <c r="H46" s="116">
+      <c r="G46" s="72"/>
+      <c r="H46" s="71">
         <f>SUM(H16:H45)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="117"/>
-      <c r="J46" s="112">
+      <c r="I46" s="72"/>
+      <c r="J46" s="67">
         <f>SUM(J16:J45)</f>
-        <v>5.9450000000000021</v>
-      </c>
-      <c r="K46" s="113"/>
-      <c r="L46" s="112">
+        <v>6.1120000000000019</v>
+      </c>
+      <c r="K46" s="68"/>
+      <c r="L46" s="67">
         <f>SUM(L16:L45)</f>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M46" s="113"/>
-      <c r="N46" s="112">
+      <c r="M46" s="68"/>
+      <c r="N46" s="67">
         <f>SUM(N16:N45)</f>
         <v>0</v>
       </c>
-      <c r="O46" s="113"/>
-      <c r="P46" s="81">
+      <c r="O46" s="68"/>
+      <c r="P46" s="76">
         <f>SUM(P16:P45)</f>
-        <v>4.54</v>
-      </c>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="114">
+        <v>5.36</v>
+      </c>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="69">
         <f>SUM(R16:R45)</f>
-        <v>17.463999999999999</v>
-      </c>
-      <c r="S46" s="115"/>
+        <v>19.364999999999998</v>
+      </c>
+      <c r="S46" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B28:Q28"/>
-    <mergeCell ref="B31:Q31"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B13:S13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="C14:C15"/>
@@ -3469,14 +3471,14 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B13:S13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="B31:Q31"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
